--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H2">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I2">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J2">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.760626333333334</v>
+        <v>8.415202000000001</v>
       </c>
       <c r="N2">
-        <v>17.281879</v>
+        <v>25.245606</v>
       </c>
       <c r="O2">
-        <v>0.1124958508646345</v>
+        <v>0.1569653516800918</v>
       </c>
       <c r="P2">
-        <v>0.1124958508646345</v>
+        <v>0.1569653516800918</v>
       </c>
       <c r="Q2">
-        <v>4.563950302813445</v>
+        <v>2.170653669755334</v>
       </c>
       <c r="R2">
-        <v>41.075552725321</v>
+        <v>19.535883027798</v>
       </c>
       <c r="S2">
-        <v>0.01979463170344956</v>
+        <v>0.008581446506390639</v>
       </c>
       <c r="T2">
-        <v>0.01979463170344956</v>
+        <v>0.008581446506390637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H3">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I3">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J3">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>85.70143299999999</v>
       </c>
       <c r="O3">
-        <v>0.5578707978254833</v>
+        <v>0.5328513631375226</v>
       </c>
       <c r="P3">
-        <v>0.5578707978254833</v>
+        <v>0.5328513631375226</v>
       </c>
       <c r="Q3">
-        <v>22.63278669477411</v>
+        <v>7.368733000298778</v>
       </c>
       <c r="R3">
-        <v>203.695080252967</v>
+        <v>66.31859700268899</v>
       </c>
       <c r="S3">
-        <v>0.09816226017395785</v>
+        <v>0.02913149570703596</v>
       </c>
       <c r="T3">
-        <v>0.09816226017395785</v>
+        <v>0.02913149570703595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H4">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I4">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J4">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.059731</v>
+        <v>2.790681000000001</v>
       </c>
       <c r="N4">
-        <v>12.179193</v>
+        <v>8.372043000000001</v>
       </c>
       <c r="O4">
-        <v>0.0792800759326923</v>
+        <v>0.05205344144940909</v>
       </c>
       <c r="P4">
-        <v>0.07928007593269232</v>
+        <v>0.05205344144940908</v>
       </c>
       <c r="Q4">
-        <v>3.216388193689667</v>
+        <v>0.7198403500910001</v>
       </c>
       <c r="R4">
-        <v>28.947493743207</v>
+        <v>6.478563150819001</v>
       </c>
       <c r="S4">
-        <v>0.01395002475600199</v>
+        <v>0.002845811629703094</v>
       </c>
       <c r="T4">
-        <v>0.013950024756002</v>
+        <v>0.002845811629703094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H5">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I5">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J5">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.81995433333333</v>
+        <v>13.838817</v>
       </c>
       <c r="N5">
-        <v>38.459863</v>
+        <v>41.516451</v>
       </c>
       <c r="O5">
-        <v>0.2503532753771899</v>
+        <v>0.2581298437329766</v>
       </c>
       <c r="P5">
-        <v>0.2503532753771899</v>
+        <v>0.2581298437329766</v>
       </c>
       <c r="Q5">
-        <v>10.15681821317078</v>
+        <v>3.569644425187</v>
       </c>
       <c r="R5">
-        <v>91.41136391853701</v>
+        <v>32.126799826683</v>
       </c>
       <c r="S5">
-        <v>0.04405185474624182</v>
+        <v>0.01411220643274272</v>
       </c>
       <c r="T5">
-        <v>0.04405185474624182</v>
+        <v>0.01411220643274271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.233495</v>
       </c>
       <c r="I6">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J6">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.760626333333334</v>
+        <v>8.415202000000001</v>
       </c>
       <c r="N6">
-        <v>17.281879</v>
+        <v>25.245606</v>
       </c>
       <c r="O6">
-        <v>0.1124958508646345</v>
+        <v>0.1569653516800918</v>
       </c>
       <c r="P6">
-        <v>0.1124958508646345</v>
+        <v>0.1569653516800918</v>
       </c>
       <c r="Q6">
-        <v>11.96961181523389</v>
+        <v>17.48537319699667</v>
       </c>
       <c r="R6">
-        <v>107.726506337105</v>
+        <v>157.36835877297</v>
       </c>
       <c r="S6">
-        <v>0.05191425011130277</v>
+        <v>0.06912654783442101</v>
       </c>
       <c r="T6">
-        <v>0.05191425011130278</v>
+        <v>0.06912654783442101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.233495</v>
       </c>
       <c r="I7">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J7">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>85.70143299999999</v>
       </c>
       <c r="O7">
-        <v>0.5578707978254833</v>
+        <v>0.5328513631375226</v>
       </c>
       <c r="P7">
-        <v>0.5578707978254833</v>
+        <v>0.5328513631375226</v>
       </c>
       <c r="Q7">
         <v>59.35771712203723</v>
@@ -883,10 +883,10 @@
         <v>534.2194540983349</v>
       </c>
       <c r="S7">
-        <v>0.2574445537813948</v>
+        <v>0.2346643692273787</v>
       </c>
       <c r="T7">
-        <v>0.2574445537813948</v>
+        <v>0.2346643692273787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.233495</v>
       </c>
       <c r="I8">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J8">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.059731</v>
+        <v>2.790681000000001</v>
       </c>
       <c r="N8">
-        <v>12.179193</v>
+        <v>8.372043000000001</v>
       </c>
       <c r="O8">
-        <v>0.0792800759326923</v>
+        <v>0.05205344144940909</v>
       </c>
       <c r="P8">
-        <v>0.07928007593269232</v>
+        <v>0.05205344144940908</v>
       </c>
       <c r="Q8">
-        <v>8.435437629948336</v>
+        <v>5.798565353365002</v>
       </c>
       <c r="R8">
-        <v>75.91893866953501</v>
+        <v>52.18708818028502</v>
       </c>
       <c r="S8">
-        <v>0.03658593325157686</v>
+        <v>0.0229240062968316</v>
       </c>
       <c r="T8">
-        <v>0.03658593325157688</v>
+        <v>0.0229240062968316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.233495</v>
       </c>
       <c r="I9">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J9">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.81995433333333</v>
+        <v>13.838817</v>
       </c>
       <c r="N9">
-        <v>38.459863</v>
+        <v>41.516451</v>
       </c>
       <c r="O9">
-        <v>0.2503532753771899</v>
+        <v>0.2581298437329766</v>
       </c>
       <c r="P9">
-        <v>0.2503532753771899</v>
+        <v>0.2581298437329766</v>
       </c>
       <c r="Q9">
-        <v>26.63770707902056</v>
+        <v>28.754732191805</v>
       </c>
       <c r="R9">
-        <v>239.739363711185</v>
+        <v>258.7925897262451</v>
       </c>
       <c r="S9">
-        <v>0.115532283672883</v>
+        <v>0.1136787501146495</v>
       </c>
       <c r="T9">
-        <v>0.115532283672883</v>
+        <v>0.1136787501146495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H10">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I10">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J10">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.760626333333334</v>
+        <v>8.415202000000001</v>
       </c>
       <c r="N10">
-        <v>17.281879</v>
+        <v>25.245606</v>
       </c>
       <c r="O10">
-        <v>0.1124958508646345</v>
+        <v>0.1569653516800918</v>
       </c>
       <c r="P10">
-        <v>0.1124958508646345</v>
+        <v>0.1569653516800918</v>
       </c>
       <c r="Q10">
-        <v>4.518585370438444</v>
+        <v>18.658682371318</v>
       </c>
       <c r="R10">
-        <v>40.66726833394599</v>
+        <v>167.928141341862</v>
       </c>
       <c r="S10">
-        <v>0.01959787624621738</v>
+        <v>0.07376509983153937</v>
       </c>
       <c r="T10">
-        <v>0.01959787624621738</v>
+        <v>0.07376509983153937</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H11">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I11">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J11">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>85.70143299999999</v>
       </c>
       <c r="O11">
-        <v>0.5578707978254833</v>
+        <v>0.5328513631375226</v>
       </c>
       <c r="P11">
-        <v>0.5578707978254833</v>
+        <v>0.5328513631375226</v>
       </c>
       <c r="Q11">
-        <v>22.40782043314911</v>
+        <v>63.34075787738232</v>
       </c>
       <c r="R11">
-        <v>201.670383898342</v>
+        <v>570.066820896441</v>
       </c>
       <c r="S11">
-        <v>0.09718654308698087</v>
+        <v>0.2504108937195241</v>
       </c>
       <c r="T11">
-        <v>0.09718654308698087</v>
+        <v>0.2504108937195241</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H12">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I12">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J12">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.059731</v>
+        <v>2.790681000000001</v>
       </c>
       <c r="N12">
-        <v>12.179193</v>
+        <v>8.372043000000001</v>
       </c>
       <c r="O12">
-        <v>0.0792800759326923</v>
+        <v>0.05205344144940909</v>
       </c>
       <c r="P12">
-        <v>0.07928007593269232</v>
+        <v>0.05205344144940908</v>
       </c>
       <c r="Q12">
-        <v>3.184417812064666</v>
+        <v>6.187662563379001</v>
       </c>
       <c r="R12">
-        <v>28.659760308582</v>
+        <v>55.68896307041101</v>
       </c>
       <c r="S12">
-        <v>0.01381136375233254</v>
+        <v>0.02446226039053847</v>
       </c>
       <c r="T12">
-        <v>0.01381136375233254</v>
+        <v>0.02446226039053847</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H13">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I13">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J13">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.81995433333333</v>
+        <v>13.838817</v>
       </c>
       <c r="N13">
-        <v>38.459863</v>
+        <v>41.516451</v>
       </c>
       <c r="O13">
-        <v>0.2503532753771899</v>
+        <v>0.2581298437329766</v>
       </c>
       <c r="P13">
-        <v>0.2503532753771899</v>
+        <v>0.2581298437329766</v>
       </c>
       <c r="Q13">
-        <v>10.05586107279578</v>
+        <v>30.684241542603</v>
       </c>
       <c r="R13">
-        <v>90.50274965516198</v>
+        <v>276.158173883427</v>
       </c>
       <c r="S13">
-        <v>0.04361398639120633</v>
+        <v>0.1213068584159244</v>
       </c>
       <c r="T13">
-        <v>0.04361398639120633</v>
+        <v>0.1213068584159244</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H14">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I14">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J14">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.760626333333334</v>
+        <v>8.415202000000001</v>
       </c>
       <c r="N14">
-        <v>17.281879</v>
+        <v>25.245606</v>
       </c>
       <c r="O14">
-        <v>0.1124958508646345</v>
+        <v>0.1569653516800918</v>
       </c>
       <c r="P14">
-        <v>0.1124958508646345</v>
+        <v>0.1569653516800918</v>
       </c>
       <c r="Q14">
-        <v>4.885464299938222</v>
+        <v>1.389251672843334</v>
       </c>
       <c r="R14">
-        <v>43.96917869944399</v>
+        <v>12.50326505559</v>
       </c>
       <c r="S14">
-        <v>0.0211890928036648</v>
+        <v>0.005492257507740766</v>
       </c>
       <c r="T14">
-        <v>0.0211890928036648</v>
+        <v>0.005492257507740764</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H15">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I15">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J15">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>85.70143299999999</v>
       </c>
       <c r="O15">
-        <v>0.5578707978254833</v>
+        <v>0.5328513631375226</v>
       </c>
       <c r="P15">
-        <v>0.5578707978254833</v>
+        <v>0.5328513631375226</v>
       </c>
       <c r="Q15">
-        <v>24.22718567668755</v>
+        <v>4.716102246082778</v>
       </c>
       <c r="R15">
-        <v>218.044671090188</v>
+        <v>42.444920214745</v>
       </c>
       <c r="S15">
-        <v>0.1050774407831498</v>
+        <v>0.01864460448358388</v>
       </c>
       <c r="T15">
-        <v>0.1050774407831498</v>
+        <v>0.01864460448358388</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H16">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I16">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J16">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.059731</v>
+        <v>2.790681000000001</v>
       </c>
       <c r="N16">
-        <v>12.179193</v>
+        <v>8.372043000000001</v>
       </c>
       <c r="O16">
-        <v>0.0792800759326923</v>
+        <v>0.05205344144940909</v>
       </c>
       <c r="P16">
-        <v>0.07928007593269232</v>
+        <v>0.05205344144940908</v>
       </c>
       <c r="Q16">
-        <v>3.442971253505333</v>
+        <v>0.4607088751550001</v>
       </c>
       <c r="R16">
-        <v>30.986741281548</v>
+        <v>4.146379876395001</v>
       </c>
       <c r="S16">
-        <v>0.0149327541727809</v>
+        <v>0.001821363132335921</v>
       </c>
       <c r="T16">
-        <v>0.01493275417278091</v>
+        <v>0.001821363132335921</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H17">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I17">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J17">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.81995433333333</v>
+        <v>13.838817</v>
       </c>
       <c r="N17">
-        <v>38.459863</v>
+        <v>41.516451</v>
       </c>
       <c r="O17">
-        <v>0.2503532753771899</v>
+        <v>0.2581298437329766</v>
       </c>
       <c r="P17">
-        <v>0.2503532753771899</v>
+        <v>0.2581298437329766</v>
       </c>
       <c r="Q17">
-        <v>10.87232977774089</v>
+        <v>2.284627233835</v>
       </c>
       <c r="R17">
-        <v>97.85096799966799</v>
+        <v>20.561645104515</v>
       </c>
       <c r="S17">
-        <v>0.04715515056685873</v>
+        <v>0.009032028769660017</v>
       </c>
       <c r="T17">
-        <v>0.04715515056685874</v>
+        <v>0.009032028769660016</v>
       </c>
     </row>
   </sheetData>
